--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -58,22 +58,22 @@
     <t>Trial-2</t>
   </si>
   <si>
-    <t>[-0.34, 0.5, -0.04, 0.05, -0.14, 0.41, -0.81, -0.0, 1.0, -0.21]</t>
-  </si>
-  <si>
-    <t>[-0.16, 0.64, -0.05, 0.46, -0.61, 0.6, -0.02, -0.09, 0.92, -0.42]</t>
-  </si>
-  <si>
-    <t>[-0.5, 1.06, -0.01, 0.49, -0.62, 1.09, -0.19, -0.19, 0.95, -0.65]</t>
-  </si>
-  <si>
-    <t>[0.42, 1.9, 0.97, 0.02, 1.5, 0.0, 0.07, 0.21, 1.76, 0.94]</t>
-  </si>
-  <si>
-    <t>[0.18, 0.19, 1.75, 0.01, 0.73, 0.02, 0.06, 0.42, 0.86, 2.32]</t>
-  </si>
-  <si>
-    <t>[0.06, 1.99, 1.2, 0.01, 0.02, 0.02, 0.25, 0.25, 1.35, 0.9]</t>
+    <t>[-0.52, 0.73, 0.46, -0.35, 1.06, -0.81, 0.88, -0.15, 0.79, 0.39]</t>
+  </si>
+  <si>
+    <t>[-0.35, 0.73, 0.27, -0.08, 0.59, -0.17, 0.27, -0.01, 0.19, 1.26]</t>
+  </si>
+  <si>
+    <t>[-0.28, 0.38, 0.83, -0.57, 1.46, -0.46, 0.94, -0.13, 0.33, 1.23]</t>
+  </si>
+  <si>
+    <t>[1.1, 0.11, 0.55, 0.1, 0.04, 0.24, 0.12, 1.93, 0.76, 1.09]</t>
+  </si>
+  <si>
+    <t>[1.78, 0.02, 0.43, 0.28, 0.13, 0.29, 0.13, 2.16, 0.43, 0.94]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.05, 0.27, 0.26, 0.19, 0.19, 0.15, 1.54, 1.93, 1.94]</t>
   </si>
 </sst>
 </file>
@@ -480,22 +480,22 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
       <c r="F2">
-        <v>-0.01</v>
+        <v>0.19</v>
       </c>
       <c r="G2">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="H2">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="I2">
-        <v>-0.91</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="J2">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -512,22 +512,22 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="F3">
-        <v>-0.02</v>
+        <v>0.22</v>
       </c>
       <c r="G3">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="H3">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
       <c r="I3">
-        <v>-0.92</v>
+        <v>-0.55</v>
       </c>
       <c r="J3">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -544,22 +544,22 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="F4">
-        <v>-0.02</v>
+        <v>0.31</v>
       </c>
       <c r="G4">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="H4">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="I4">
-        <v>-0.77</v>
+        <v>-0.91</v>
       </c>
       <c r="J4">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -576,22 +576,22 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="F5">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="G5">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="H5">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.58</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -608,22 +608,22 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="F6">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G6">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="H6">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J6">
-        <v>2.89</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -640,22 +640,22 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
       <c r="F7">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="G7">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H7">
-        <v>0.84</v>
+        <v>1.38</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
